--- a/methods/STAP_Index_Current.xlsx
+++ b/methods/STAP_Index_Current.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\CLARIAH CORE\WP3\VKL\STAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A694E09-970A-4381-9D88-33414BB77622}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7089E4B5-AB9E-4872-A835-4885C7CF49D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="152">
   <si>
     <t>Item</t>
   </si>
@@ -545,6 +545,18 @@
     or @persoon="3o")
     and not(@pos="adv"
         or @rel="det")]</t>
+  </si>
+  <si>
+    <t>S019</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>makestapform</t>
+  </si>
+  <si>
+    <t>Forms</t>
   </si>
 </sst>
 </file>
@@ -982,10 +994,10 @@
   <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1751,7 +1763,27 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K20" s="9"/>
+      <c r="A20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K24" s="9"/>

--- a/methods/STAP_Index_Current.xlsx
+++ b/methods/STAP_Index_Current.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jodijk\Dropbox\jodijk\Utrecht\Projects\CLARIAH CORE\WP3\VKL\STAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7089E4B5-AB9E-4872-A835-4885C7CF49D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC663DBB-7600-4C3D-A5D9-C3609F9A2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,18 +392,6 @@
     <t>core</t>
   </si>
   <si>
-    <t xml:space="preserve">//node[@cat="cp"
-    or @cat="whrel"
-    or @cat="whsub"
-    or @cat= "rel" 
-    or (node[@cat="ssub"]
-        and @rel!="body" 
-        and @rel!="cnj" 
-        and @rel!="tag" 
-        and @rel!="nucl")]
-</t>
-  </si>
-  <si>
     <t>S013</t>
   </si>
   <si>
@@ -557,6 +545,18 @@
   </si>
   <si>
     <t>Forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//node[(@cat="cp" and node[@cat="ssub"])
+    or @cat="whrel"
+    or @cat="whsub"
+    or @cat= "rel" 
+    or (node[@cat="ssub"]
+        and @rel!="body" 
+        and @rel!="cnj" 
+        and @rel!="tag" 
+        and @rel!="nucl")]
+</t>
   </si>
 </sst>
 </file>
@@ -994,10 +994,10 @@
   <dimension ref="A1:Q148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M20" sqref="M20"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1133,7 +1133,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1171,7 +1171,7 @@
         <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -1212,7 +1212,7 @@
         <v>97</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -1326,7 +1326,7 @@
         <v>97</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -1367,7 +1367,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -1408,7 +1408,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1446,7 +1446,7 @@
         <v>97</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -1484,7 +1484,7 @@
         <v>97</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -1522,7 +1522,7 @@
         <v>97</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -1536,19 +1536,19 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>98</v>
@@ -1560,7 +1560,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -1569,36 +1569,36 @@
         <v>98</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>98</v>
@@ -1607,36 +1607,36 @@
         <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>98</v>
@@ -1645,30 +1645,30 @@
         <v>98</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>97</v>
@@ -1680,33 +1680,33 @@
         <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>97</v>
@@ -1718,33 +1718,33 @@
         <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>97</v>
@@ -1756,33 +1756,33 @@
         <v>98</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/methods/STAP_Index_Current.xlsx
+++ b/methods/STAP_Index_Current.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC663DBB-7600-4C3D-A5D9-C3609F9A2B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B623269-27FD-4EDC-95BC-3F4628671A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
   <si>
     <t>Item</t>
   </si>
@@ -383,12 +383,6 @@
     <t>process</t>
   </si>
   <si>
-    <t>special1</t>
-  </si>
-  <si>
-    <t>special2</t>
-  </si>
-  <si>
     <t>core</t>
   </si>
   <si>
@@ -557,6 +551,21 @@
         and @rel!="tag" 
         and @rel!="nucl")]
 </t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t>unused1</t>
+  </si>
+  <si>
+    <t>unused2</t>
   </si>
 </sst>
 </file>
@@ -991,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q148"/>
+  <dimension ref="A1:T148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1011,12 +1020,12 @@
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.5546875" style="10" customWidth="1"/>
-    <col min="13" max="16" width="8.77734375" style="2"/>
-    <col min="17" max="17" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="19" width="8.77734375" style="2"/>
+    <col min="20" max="20" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,16 +1069,25 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1095,7 +1113,7 @@
         <v>97</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1104,10 +1122,10 @@
         <v>98</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1133,7 +1151,7 @@
         <v>97</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1142,10 +1160,10 @@
         <v>98</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1171,7 +1189,7 @@
         <v>97</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -1180,13 +1198,13 @@
         <v>98</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>97</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -1221,10 +1239,10 @@
         <v>98</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1259,10 +1277,10 @@
         <v>98</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1297,10 +1315,10 @@
         <v>98</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1344,7 @@
         <v>97</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -1335,10 +1353,10 @@
         <v>98</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>97</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -1376,10 +1394,10 @@
         <v>98</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1417,10 +1435,10 @@
         <v>98</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1446,7 +1464,7 @@
         <v>97</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -1455,10 +1473,10 @@
         <v>98</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1484,7 +1502,7 @@
         <v>97</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -1493,10 +1511,10 @@
         <v>98</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>97</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -1531,24 +1549,24 @@
         <v>98</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>98</v>
@@ -1560,7 +1578,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -1569,36 +1587,36 @@
         <v>98</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>98</v>
@@ -1607,36 +1625,36 @@
         <v>98</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>98</v>
@@ -1645,30 +1663,30 @@
         <v>98</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>97</v>
@@ -1680,33 +1698,33 @@
         <v>98</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>97</v>
@@ -1718,33 +1736,33 @@
         <v>98</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>97</v>
@@ -1756,61 +1774,61 @@
         <v>98</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
@@ -1939,48 +1957,48 @@
     <row r="80" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K85" s="9"/>
     </row>
-    <row r="87" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:20" x14ac:dyDescent="0.3">
       <c r="E89" s="6"/>
       <c r="K89" s="9"/>
-      <c r="Q89" s="4"/>
-    </row>
-    <row r="90" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="T89" s="4"/>
+    </row>
+    <row r="90" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K92" s="9"/>
     </row>
-    <row r="94" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:20" x14ac:dyDescent="0.3">
       <c r="K96" s="9"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.3">
@@ -2122,7 +2140,7 @@
       <c r="K148" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
+  <autoFilter ref="A1:T148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M148">
     <sortCondition ref="E2:E148"/>
     <sortCondition ref="I2:I148"/>

--- a/methods/STAP_Index_Current.xlsx
+++ b/methods/STAP_Index_Current.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\jodijk\myprograms\python\sastacode\mysastadev\methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B623269-27FD-4EDC-95BC-3F4628671A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFAE02E-7F36-4373-987B-531EACB0A6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="624" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="156">
   <si>
     <t>Item</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>unused2</t>
+  </si>
+  <si>
+    <t>literal</t>
   </si>
 </sst>
 </file>
@@ -1000,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T148"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1020,12 +1023,12 @@
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.5546875" style="10" customWidth="1"/>
-    <col min="13" max="19" width="8.77734375" style="2"/>
-    <col min="20" max="20" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.77734375" style="2"/>
+    <col min="13" max="20" width="8.77734375" style="2"/>
+    <col min="21" max="21" width="16.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1069,25 +1072,28 @@
         <v>104</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1200,11 +1206,11 @@
       <c r="N4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1356,7 +1362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1397,7 +1403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>45</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -1476,7 +1482,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>47</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>110</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>112</v>
       </c>
@@ -1700,11 +1706,11 @@
       <c r="N17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T17" s="9" t="s">
+      <c r="U17" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>122</v>
       </c>
@@ -1738,11 +1744,11 @@
       <c r="N18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>123</v>
       </c>
@@ -1776,11 +1782,11 @@
       <c r="N19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="U19" s="9" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>145</v>
       </c>
@@ -1803,32 +1809,32 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K26" s="9"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E27" s="6"/>
       <c r="K27" s="9"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K29" s="11"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K30" s="9"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K31" s="9"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.3">
@@ -1957,48 +1963,48 @@
     <row r="80" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K80" s="9"/>
     </row>
-    <row r="81" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K81" s="9"/>
     </row>
-    <row r="82" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K82" s="9"/>
     </row>
-    <row r="83" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K83" s="9"/>
     </row>
-    <row r="84" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K84" s="9"/>
     </row>
-    <row r="85" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K85" s="9"/>
     </row>
-    <row r="87" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K87" s="9"/>
     </row>
-    <row r="88" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K88" s="9"/>
     </row>
-    <row r="89" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:21" x14ac:dyDescent="0.3">
       <c r="E89" s="6"/>
       <c r="K89" s="9"/>
-      <c r="T89" s="4"/>
-    </row>
-    <row r="90" spans="5:20" x14ac:dyDescent="0.3">
+      <c r="U89" s="4"/>
+    </row>
+    <row r="90" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K90" s="9"/>
     </row>
-    <row r="91" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K91" s="9"/>
     </row>
-    <row r="92" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K92" s="9"/>
     </row>
-    <row r="94" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K94" s="9"/>
     </row>
-    <row r="95" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K95" s="9"/>
     </row>
-    <row r="96" spans="5:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:21" x14ac:dyDescent="0.3">
       <c r="K96" s="9"/>
     </row>
     <row r="99" spans="11:11" x14ac:dyDescent="0.3">
@@ -2140,7 +2146,7 @@
       <c r="K148" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
+  <autoFilter ref="A1:U148" xr:uid="{FEE5544A-5DEE-468C-AA79-13446D744343}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M148">
     <sortCondition ref="E2:E148"/>
     <sortCondition ref="I2:I148"/>
